--- a/docs/출퇴근 관리.xlsx
+++ b/docs/출퇴근 관리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\장휘준\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\internship-2020h2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBCFF3E-CAFC-4492-883B-733E81C6A494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24FD01E-7000-425A-BC4E-6218B685C560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDA2AEC8-314C-4CB1-A6CC-67FAA0C694AA}"/>
   </bookViews>
@@ -250,7 +250,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>병원 진료</t>
+    <t>병원 진료로 인한 출근 지연</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -576,6 +576,42 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,42 +637,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A957A3-64B0-477F-85CE-B22351B8E8ED}">
   <dimension ref="B2:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42:L42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -970,33 +970,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="4" t="s">
         <v>57</v>
       </c>
@@ -1015,9 +1015,9 @@
       <c r="I3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -1044,9 +1044,9 @@
       <c r="I4" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -1073,9 +1073,9 @@
       <c r="I5" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -1102,9 +1102,9 @@
       <c r="I6" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
@@ -1131,9 +1131,9 @@
       <c r="I7" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
@@ -1157,12 +1157,12 @@
       <c r="H8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="23" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
@@ -1171,15 +1171,15 @@
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
@@ -1188,15 +1188,15 @@
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
@@ -1223,9 +1223,9 @@
       <c r="I11" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
@@ -1243,18 +1243,18 @@
       <c r="F12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="I12" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
@@ -1281,9 +1281,9 @@
       <c r="I13" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
@@ -1310,9 +1310,9 @@
       <c r="I14" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
@@ -1339,9 +1339,9 @@
       <c r="I15" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
@@ -1350,15 +1350,15 @@
       <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
@@ -1367,15 +1367,15 @@
       <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
@@ -1402,9 +1402,9 @@
       <c r="I18" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
@@ -1431,9 +1431,9 @@
       <c r="I19" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
@@ -1460,9 +1460,9 @@
       <c r="I20" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
@@ -1489,9 +1489,9 @@
       <c r="I21" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
@@ -1515,12 +1515,12 @@
       <c r="H22" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="23" t="s">
+      <c r="I22" s="17"/>
+      <c r="J22" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
@@ -1529,15 +1529,15 @@
       <c r="C23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
@@ -1546,15 +1546,15 @@
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
@@ -1572,18 +1572,18 @@
       <c r="F25" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="I25" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
@@ -1610,9 +1610,9 @@
       <c r="I26" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
@@ -1639,9 +1639,9 @@
       <c r="I27" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
@@ -1668,9 +1668,9 @@
       <c r="I28" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
@@ -1682,7 +1682,7 @@
       <c r="D29" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="5">
         <v>0.41666666666666669</v>
       </c>
@@ -1695,11 +1695,11 @@
       <c r="I29" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="25"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="2" t="s">
@@ -1708,15 +1708,15 @@
       <c r="C30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="25"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
@@ -1725,15 +1725,15 @@
       <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="25"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
@@ -1745,16 +1745,16 @@
       <c r="D32" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="23" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K32" s="24"/>
-      <c r="L32" s="25"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
@@ -1781,9 +1781,9 @@
       <c r="I33" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="25"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="14"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
@@ -1810,11 +1810,11 @@
       <c r="I34" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="14"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
@@ -1841,9 +1841,9 @@
       <c r="I35" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="25"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
@@ -1870,9 +1870,9 @@
       <c r="I36" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J36" s="23"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="25"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
@@ -1881,15 +1881,15 @@
       <c r="C37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="25"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="14"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
@@ -1898,15 +1898,15 @@
       <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="25"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
@@ -1933,9 +1933,9 @@
       <c r="I39" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J39" s="23"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="25"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="14"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
@@ -1962,9 +1962,9 @@
       <c r="I40" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J40" s="23"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="25"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="14"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
@@ -1991,9 +1991,9 @@
       <c r="I41" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="25"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="14"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
@@ -2014,15 +2014,17 @@
       <c r="G42" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="H42" s="5">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="I42" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J42" s="23" t="s">
+      <c r="J42" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="24"/>
-      <c r="L42" s="25"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="14"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
@@ -2037,33 +2039,32 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="25"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="D30:I31"/>
-    <mergeCell ref="D37:I38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D9:I10"/>
+    <mergeCell ref="D16:I17"/>
+    <mergeCell ref="D23:I24"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="J22:L22"/>
@@ -2080,26 +2081,27 @@
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D9:I10"/>
-    <mergeCell ref="D16:I17"/>
-    <mergeCell ref="D23:I24"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="D30:I31"/>
+    <mergeCell ref="D37:I38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/출퇴근 관리.xlsx
+++ b/docs/출퇴근 관리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\internship-2020h2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24FD01E-7000-425A-BC4E-6218B685C560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362A5070-56DC-45DE-BED2-AF72BBAD3E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDA2AEC8-314C-4CB1-A6CC-67FAA0C694AA}"/>
+    <workbookView xWindow="2664" yWindow="1200" windowWidth="20376" windowHeight="8964" xr2:uid="{FDA2AEC8-314C-4CB1-A6CC-67FAA0C694AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A957A3-64B0-477F-85CE-B22351B8E8ED}">
   <dimension ref="B2:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43:L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1736,14 +1736,14 @@
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -2033,12 +2033,24 @@
       <c r="C43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="D43" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.625</v>
+      </c>
       <c r="J43" s="12"/>
       <c r="K43" s="13"/>
       <c r="L43" s="14"/>
